--- a/2012-8.xlsx
+++ b/2012-8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1845" windowWidth="18675" windowHeight="6225"/>
+    <workbookView xWindow="2160" yWindow="2055" windowWidth="16515" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="2012-8" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="66">
   <si>
     <t>Северный</t>
   </si>
@@ -235,6 +235,9 @@
     <t>BR</t>
   </si>
   <si>
+    <t>03.апр</t>
+  </si>
+  <si>
     <t>7.0</t>
   </si>
   <si>
@@ -253,13 +256,43 @@
     <t>SHRA+TS</t>
   </si>
   <si>
+    <t>02.май</t>
+  </si>
+  <si>
     <t>5.0</t>
+  </si>
+  <si>
+    <t>01.мар</t>
   </si>
   <si>
     <t>RA</t>
   </si>
   <si>
     <t>DZ</t>
+  </si>
+  <si>
+    <t>04.апр</t>
+  </si>
+  <si>
+    <t>04.июл</t>
+  </si>
+  <si>
+    <t>04.май</t>
+  </si>
+  <si>
+    <t>03.янв</t>
+  </si>
+  <si>
+    <t>04.фев</t>
+  </si>
+  <si>
+    <t>04.сен</t>
+  </si>
+  <si>
+    <t>01.июн</t>
+  </si>
+  <si>
+    <t>01.сен</t>
   </si>
   <si>
     <t>1.0</t>
@@ -274,16 +307,61 @@
     <t>0.1</t>
   </si>
   <si>
+    <t>02.мар</t>
+  </si>
+  <si>
+    <t>02.фев</t>
+  </si>
+  <si>
+    <t>02.авг</t>
+  </si>
+  <si>
     <t>0.3</t>
+  </si>
+  <si>
+    <t>04.янв</t>
+  </si>
+  <si>
+    <t>02.июн</t>
+  </si>
+  <si>
+    <t>03.июн</t>
+  </si>
+  <si>
+    <t>03.сен</t>
+  </si>
+  <si>
+    <t>03.фев</t>
+  </si>
+  <si>
+    <t>04.июн</t>
+  </si>
+  <si>
+    <t>02.сен</t>
   </si>
   <si>
     <t>0.5</t>
   </si>
   <si>
+    <t>05.июн</t>
+  </si>
+  <si>
+    <t>02.апр</t>
+  </si>
+  <si>
+    <t>04.авг</t>
+  </si>
+  <si>
     <t>RA+TS</t>
   </si>
   <si>
+    <t>01.янв</t>
+  </si>
+  <si>
     <t>0.6</t>
+  </si>
+  <si>
+    <t>01.май</t>
   </si>
   <si>
     <t>Число месяца</t>
@@ -1188,37 +1266,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4586,8 +4664,8 @@
       <c r="G136">
         <v>6</v>
       </c>
-      <c r="H136" s="2">
-        <v>41367</v>
+      <c r="H136" t="s">
+        <v>12</v>
       </c>
       <c r="J136">
         <v>1014</v>
@@ -4633,7 +4711,7 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J138">
         <v>1014</v>
@@ -4762,7 +4840,7 @@
         <v>20</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E144">
         <v>4</v>
@@ -4785,7 +4863,7 @@
         <v>20</v>
       </c>
       <c r="D145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E145">
         <v>3</v>
@@ -4808,7 +4886,7 @@
         <v>19</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E146">
         <v>2</v>
@@ -4963,7 +5041,7 @@
         <v>6</v>
       </c>
       <c r="H153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J153">
         <v>1015</v>
@@ -4980,7 +5058,7 @@
         <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E154">
         <v>2</v>
@@ -5032,7 +5110,7 @@
         <v>19</v>
       </c>
       <c r="D156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E156">
         <v>2</v>
@@ -5087,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G158">
         <v>4</v>
@@ -5119,13 +5197,13 @@
         <v>3</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G159">
         <v>4</v>
       </c>
       <c r="H159" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J159">
         <v>1016</v>
@@ -5154,7 +5232,7 @@
         <v>4</v>
       </c>
       <c r="H160" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J160">
         <v>1016</v>
@@ -5174,7 +5252,7 @@
         <v>22</v>
       </c>
       <c r="D161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E161">
         <v>2</v>
@@ -5261,7 +5339,7 @@
         <v>25</v>
       </c>
       <c r="D164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E164">
         <v>3</v>
@@ -5290,7 +5368,7 @@
         <v>26</v>
       </c>
       <c r="D165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E165">
         <v>2</v>
@@ -5319,7 +5397,7 @@
         <v>27</v>
       </c>
       <c r="D166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E166">
         <v>3</v>
@@ -5348,7 +5426,7 @@
         <v>27</v>
       </c>
       <c r="D167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E167">
         <v>4</v>
@@ -5374,7 +5452,7 @@
         <v>27</v>
       </c>
       <c r="D168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E168">
         <v>2</v>
@@ -5449,7 +5527,7 @@
         <v>28</v>
       </c>
       <c r="D171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E171">
         <v>2</v>
@@ -6729,7 +6807,7 @@
         <v>2</v>
       </c>
       <c r="F223" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G223">
         <v>4</v>
@@ -6761,7 +6839,7 @@
         <v>2</v>
       </c>
       <c r="F224" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G224">
         <v>4</v>
@@ -8592,8 +8670,8 @@
       <c r="G300">
         <v>6</v>
       </c>
-      <c r="H300" s="2">
-        <v>41396</v>
+      <c r="H300" t="s">
+        <v>19</v>
       </c>
       <c r="J300">
         <v>1013</v>
@@ -8987,7 +9065,7 @@
         <v>25</v>
       </c>
       <c r="D314" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E314">
         <v>6</v>
@@ -9498,7 +9576,7 @@
         <v>14</v>
       </c>
       <c r="D334" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E334">
         <v>2</v>
@@ -9736,7 +9814,7 @@
         <v>6</v>
       </c>
       <c r="H345" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J345">
         <v>1021</v>
@@ -9762,7 +9840,7 @@
         <v>6</v>
       </c>
       <c r="H346" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J346">
         <v>1021</v>
@@ -9871,7 +9949,7 @@
         <v>19</v>
       </c>
       <c r="D351" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E351">
         <v>2</v>
@@ -10328,7 +10406,7 @@
         <v>24</v>
       </c>
       <c r="D368" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E368">
         <v>6</v>
@@ -10357,7 +10435,7 @@
         <v>24</v>
       </c>
       <c r="D369" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E369">
         <v>4</v>
@@ -10386,7 +10464,7 @@
         <v>24</v>
       </c>
       <c r="D370" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E370">
         <v>2</v>
@@ -10415,7 +10493,7 @@
         <v>23</v>
       </c>
       <c r="D371" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E371">
         <v>4</v>
@@ -10438,7 +10516,7 @@
         <v>22</v>
       </c>
       <c r="D372" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E372">
         <v>4</v>
@@ -10461,7 +10539,7 @@
         <v>22</v>
       </c>
       <c r="D373" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E373">
         <v>4</v>
@@ -10484,7 +10562,7 @@
         <v>21</v>
       </c>
       <c r="D374" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E374">
         <v>4</v>
@@ -10963,7 +11041,7 @@
         <v>15</v>
       </c>
       <c r="D396" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E396">
         <v>1</v>
@@ -11075,7 +11153,7 @@
         <v>21</v>
       </c>
       <c r="D401" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E401">
         <v>3</v>
@@ -11620,7 +11698,7 @@
         <v>22</v>
       </c>
       <c r="D420" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E420">
         <v>3</v>
@@ -12011,7 +12089,7 @@
         <v>0</v>
       </c>
       <c r="F434" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G434">
         <v>4</v>
@@ -12040,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="F435" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G435">
         <v>4</v>
@@ -12188,7 +12266,7 @@
         <v>2</v>
       </c>
       <c r="F440" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G440">
         <v>4</v>
@@ -12249,7 +12327,7 @@
         <v>1</v>
       </c>
       <c r="F442" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G442">
         <v>4</v>
@@ -12797,7 +12875,7 @@
         <v>19</v>
       </c>
       <c r="D461" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E461">
         <v>6</v>
@@ -12826,7 +12904,7 @@
         <v>20</v>
       </c>
       <c r="D462" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E462">
         <v>6</v>
@@ -12855,7 +12933,7 @@
         <v>17</v>
       </c>
       <c r="D463" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E463">
         <v>5</v>
@@ -12965,7 +13043,7 @@
         <v>18</v>
       </c>
       <c r="D467" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E467">
         <v>4</v>
@@ -12988,13 +13066,13 @@
         <v>16</v>
       </c>
       <c r="D468" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E468">
         <v>7</v>
       </c>
       <c r="F468" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G468">
         <v>4</v>
@@ -13429,7 +13507,7 @@
         <v>6</v>
       </c>
       <c r="H486" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J486">
         <v>1018</v>
@@ -13455,7 +13533,7 @@
         <v>6</v>
       </c>
       <c r="H487" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J487">
         <v>1018</v>
@@ -13478,7 +13556,7 @@
         <v>6</v>
       </c>
       <c r="H488" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J488">
         <v>1018</v>
@@ -13636,7 +13714,7 @@
         <v>14</v>
       </c>
       <c r="D495" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E495">
         <v>3</v>
@@ -13659,7 +13737,7 @@
         <v>15</v>
       </c>
       <c r="D496" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E496">
         <v>2</v>
@@ -13682,7 +13760,7 @@
         <v>17</v>
       </c>
       <c r="D497" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E497">
         <v>2</v>
@@ -13847,7 +13925,7 @@
         <v>19</v>
       </c>
       <c r="D503" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E503">
         <v>2</v>
@@ -13876,7 +13954,7 @@
         <v>19</v>
       </c>
       <c r="D504" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E504">
         <v>3</v>
@@ -13934,7 +14012,7 @@
         <v>19</v>
       </c>
       <c r="D506" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E506">
         <v>2</v>
@@ -13963,7 +14041,7 @@
         <v>19</v>
       </c>
       <c r="D507" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E507">
         <v>3</v>
@@ -15065,7 +15143,7 @@
         <v>3</v>
       </c>
       <c r="F548" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G548">
         <v>4</v>
@@ -15097,7 +15175,7 @@
         <v>3</v>
       </c>
       <c r="F549" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G549">
         <v>4</v>
@@ -15129,7 +15207,7 @@
         <v>4</v>
       </c>
       <c r="F550" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G550">
         <v>4</v>
@@ -15219,7 +15297,7 @@
         <v>3</v>
       </c>
       <c r="F553" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G553">
         <v>6</v>
@@ -15251,13 +15329,13 @@
         <v>4</v>
       </c>
       <c r="F554" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G554">
         <v>6</v>
       </c>
-      <c r="H554" s="2">
-        <v>41334</v>
+      <c r="H554" t="s">
+        <v>21</v>
       </c>
       <c r="J554">
         <v>1017</v>
@@ -15283,7 +15361,7 @@
         <v>3</v>
       </c>
       <c r="F555" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G555">
         <v>6</v>
@@ -15315,7 +15393,7 @@
         <v>3</v>
       </c>
       <c r="F556" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G556">
         <v>6</v>
@@ -15347,7 +15425,7 @@
         <v>3</v>
       </c>
       <c r="F557" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G557">
         <v>6</v>
@@ -15408,7 +15486,7 @@
         <v>3</v>
       </c>
       <c r="F559" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G559">
         <v>6</v>
@@ -15440,7 +15518,7 @@
         <v>2</v>
       </c>
       <c r="F560" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G560">
         <v>6</v>
@@ -15472,7 +15550,7 @@
         <v>3</v>
       </c>
       <c r="F561" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G561">
         <v>6</v>
@@ -15504,7 +15582,7 @@
         <v>3</v>
       </c>
       <c r="F562" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G562">
         <v>6</v>
@@ -15536,7 +15614,7 @@
         <v>3</v>
       </c>
       <c r="F563" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G563">
         <v>6</v>
@@ -15568,7 +15646,7 @@
         <v>3</v>
       </c>
       <c r="F564" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G564">
         <v>6</v>
@@ -15600,7 +15678,7 @@
         <v>1</v>
       </c>
       <c r="F565" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G565">
         <v>6</v>
@@ -15632,7 +15710,7 @@
         <v>3</v>
       </c>
       <c r="F566" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G566">
         <v>4</v>
@@ -15722,7 +15800,7 @@
         <v>2</v>
       </c>
       <c r="F569" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G569">
         <v>4</v>
@@ -15754,7 +15832,7 @@
         <v>2</v>
       </c>
       <c r="F570" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G570">
         <v>4</v>
@@ -15786,7 +15864,7 @@
         <v>2</v>
       </c>
       <c r="F571" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G571">
         <v>4</v>
@@ -15954,13 +16032,13 @@
         <v>12</v>
       </c>
       <c r="D577" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E577">
         <v>2</v>
       </c>
       <c r="F577" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G577">
         <v>8</v>
@@ -15986,7 +16064,7 @@
         <v>12</v>
       </c>
       <c r="D578" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E578">
         <v>2</v>
@@ -16021,7 +16099,7 @@
         <v>3</v>
       </c>
       <c r="F579" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G579">
         <v>8</v>
@@ -16134,19 +16212,19 @@
         <v>12</v>
       </c>
       <c r="D583" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E583">
         <v>3</v>
       </c>
       <c r="F583" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G583">
         <v>8</v>
       </c>
       <c r="H583" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J583">
         <v>1014</v>
@@ -16166,13 +16244,13 @@
         <v>12</v>
       </c>
       <c r="D584" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E584">
         <v>3</v>
       </c>
       <c r="F584" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G584">
         <v>8</v>
@@ -16198,7 +16276,7 @@
         <v>12</v>
       </c>
       <c r="D585" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E585">
         <v>4</v>
@@ -16227,19 +16305,19 @@
         <v>12</v>
       </c>
       <c r="D586" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E586">
         <v>4</v>
       </c>
       <c r="F586" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G586">
         <v>8</v>
       </c>
       <c r="H586" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J586">
         <v>1013</v>
@@ -16259,13 +16337,13 @@
         <v>12</v>
       </c>
       <c r="D587" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E587">
         <v>3</v>
       </c>
       <c r="F587" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G587">
         <v>8</v>
@@ -16291,13 +16369,13 @@
         <v>12</v>
       </c>
       <c r="D588" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E588">
         <v>4</v>
       </c>
       <c r="F588" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G588">
         <v>8</v>
@@ -16323,13 +16401,13 @@
         <v>12</v>
       </c>
       <c r="D589" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E589">
         <v>4</v>
       </c>
       <c r="F589" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G589">
         <v>8</v>
@@ -16355,13 +16433,13 @@
         <v>12</v>
       </c>
       <c r="D590" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E590">
         <v>4</v>
       </c>
       <c r="F590" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G590">
         <v>8</v>
@@ -16387,13 +16465,13 @@
         <v>13</v>
       </c>
       <c r="D591" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E591">
         <v>5</v>
       </c>
       <c r="F591" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G591">
         <v>8</v>
@@ -16419,13 +16497,13 @@
         <v>13</v>
       </c>
       <c r="D592" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E592">
         <v>4</v>
       </c>
       <c r="F592" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G592">
         <v>8</v>
@@ -16451,13 +16529,13 @@
         <v>13</v>
       </c>
       <c r="D593" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E593">
         <v>4</v>
       </c>
       <c r="F593" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G593">
         <v>8</v>
@@ -16483,13 +16561,13 @@
         <v>13</v>
       </c>
       <c r="D594" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E594">
         <v>6</v>
       </c>
       <c r="F594" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G594">
         <v>8</v>
@@ -16515,13 +16593,13 @@
         <v>13</v>
       </c>
       <c r="D595" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E595">
         <v>5</v>
       </c>
       <c r="F595" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G595">
         <v>8</v>
@@ -16547,13 +16625,13 @@
         <v>13</v>
       </c>
       <c r="D596" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E596">
         <v>6</v>
       </c>
       <c r="F596" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G596">
         <v>8</v>
@@ -16579,13 +16657,13 @@
         <v>14</v>
       </c>
       <c r="D597" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E597">
         <v>6</v>
       </c>
       <c r="F597" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G597">
         <v>8</v>
@@ -16611,13 +16689,13 @@
         <v>13</v>
       </c>
       <c r="D598" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E598">
         <v>6</v>
       </c>
       <c r="F598" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G598">
         <v>8</v>
@@ -16643,13 +16721,13 @@
         <v>14</v>
       </c>
       <c r="D599" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E599">
         <v>6</v>
       </c>
       <c r="F599" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G599">
         <v>8</v>
@@ -16675,13 +16753,13 @@
         <v>14</v>
       </c>
       <c r="D600" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E600">
         <v>5</v>
       </c>
       <c r="F600" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G600">
         <v>8</v>
@@ -16713,7 +16791,7 @@
         <v>5</v>
       </c>
       <c r="F601" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G601">
         <v>8</v>
@@ -16739,13 +16817,13 @@
         <v>14</v>
       </c>
       <c r="D602" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E602">
         <v>5</v>
       </c>
       <c r="F602" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G602">
         <v>8</v>
@@ -16777,7 +16855,7 @@
         <v>5</v>
       </c>
       <c r="F603" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G603">
         <v>8</v>
@@ -16809,7 +16887,7 @@
         <v>6</v>
       </c>
       <c r="F604" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G604">
         <v>8</v>
@@ -16841,7 +16919,7 @@
         <v>6</v>
       </c>
       <c r="F605" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G605">
         <v>8</v>
@@ -16873,7 +16951,7 @@
         <v>5</v>
       </c>
       <c r="F606" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G606">
         <v>8</v>
@@ -16905,7 +16983,7 @@
         <v>5</v>
       </c>
       <c r="F607" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G607">
         <v>8</v>
@@ -16931,19 +17009,19 @@
         <v>14</v>
       </c>
       <c r="D608" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E608">
         <v>5</v>
       </c>
       <c r="F608" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G608">
         <v>8</v>
       </c>
       <c r="H608" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J608">
         <v>1011</v>
@@ -16969,7 +17047,7 @@
         <v>5</v>
       </c>
       <c r="F609" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G609">
         <v>8</v>
@@ -17001,7 +17079,7 @@
         <v>5</v>
       </c>
       <c r="F610" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G610">
         <v>8</v>
@@ -17033,7 +17111,7 @@
         <v>5</v>
       </c>
       <c r="F611" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G611">
         <v>8</v>
@@ -17065,7 +17143,7 @@
         <v>5</v>
       </c>
       <c r="F612" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G612">
         <v>8</v>
@@ -17097,7 +17175,7 @@
         <v>6</v>
       </c>
       <c r="F613" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G613">
         <v>8</v>
@@ -17129,7 +17207,7 @@
         <v>5</v>
       </c>
       <c r="F614" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G614">
         <v>8</v>
@@ -17161,7 +17239,7 @@
         <v>5</v>
       </c>
       <c r="F615" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G615">
         <v>8</v>
@@ -17193,7 +17271,7 @@
         <v>6</v>
       </c>
       <c r="F616" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G616">
         <v>8</v>
@@ -17225,13 +17303,13 @@
         <v>7</v>
       </c>
       <c r="F617" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G617">
         <v>8</v>
       </c>
       <c r="H617" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J617">
         <v>1009</v>
@@ -17257,7 +17335,7 @@
         <v>6</v>
       </c>
       <c r="F618" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G618">
         <v>6</v>
@@ -17289,7 +17367,7 @@
         <v>8</v>
       </c>
       <c r="F619" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G619">
         <v>6</v>
@@ -17321,7 +17399,7 @@
         <v>9</v>
       </c>
       <c r="F620" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G620">
         <v>6</v>
@@ -17353,7 +17431,7 @@
         <v>7</v>
       </c>
       <c r="F621" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G621">
         <v>6</v>
@@ -17385,7 +17463,7 @@
         <v>9</v>
       </c>
       <c r="F622" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G622">
         <v>6</v>
@@ -17417,7 +17495,7 @@
         <v>9</v>
       </c>
       <c r="F623" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G623">
         <v>6</v>
@@ -17449,13 +17527,13 @@
         <v>9</v>
       </c>
       <c r="F624" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G624">
         <v>6</v>
       </c>
       <c r="H624" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J624">
         <v>1006</v>
@@ -17481,7 +17559,7 @@
         <v>8</v>
       </c>
       <c r="F625" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G625">
         <v>6</v>
@@ -17513,7 +17591,7 @@
         <v>8</v>
       </c>
       <c r="F626" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G626">
         <v>6</v>
@@ -17545,7 +17623,7 @@
         <v>9</v>
       </c>
       <c r="F627" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G627">
         <v>6</v>
@@ -17577,13 +17655,13 @@
         <v>8</v>
       </c>
       <c r="F628" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G628">
         <v>6</v>
       </c>
       <c r="H628" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J628">
         <v>1005</v>
@@ -17609,7 +17687,7 @@
         <v>9</v>
       </c>
       <c r="F629" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G629">
         <v>6</v>
@@ -17641,13 +17719,13 @@
         <v>9</v>
       </c>
       <c r="F630" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G630">
         <v>6</v>
       </c>
       <c r="H630" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J630">
         <v>1004</v>
@@ -17673,13 +17751,13 @@
         <v>10</v>
       </c>
       <c r="F631" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G631">
         <v>6</v>
       </c>
       <c r="H631" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J631">
         <v>1004</v>
@@ -17705,13 +17783,13 @@
         <v>8</v>
       </c>
       <c r="F632" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G632">
         <v>6</v>
       </c>
       <c r="H632" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J632">
         <v>1004</v>
@@ -17737,13 +17815,13 @@
         <v>9</v>
       </c>
       <c r="F633" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G633">
         <v>6</v>
       </c>
-      <c r="H633" s="2">
-        <v>41368</v>
+      <c r="H633" t="s">
+        <v>24</v>
       </c>
       <c r="J633">
         <v>1004</v>
@@ -17769,13 +17847,13 @@
         <v>9</v>
       </c>
       <c r="F634" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G634">
         <v>6</v>
       </c>
-      <c r="H634" s="2">
-        <v>41459</v>
+      <c r="H634" t="s">
+        <v>25</v>
       </c>
       <c r="J634">
         <v>1004</v>
@@ -17801,13 +17879,13 @@
         <v>9</v>
       </c>
       <c r="F635" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G635">
         <v>6</v>
       </c>
       <c r="H635" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J635">
         <v>1004</v>
@@ -17844,13 +17922,13 @@
         <v>10</v>
       </c>
       <c r="F637" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G637">
         <v>6</v>
       </c>
       <c r="H637" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J637">
         <v>1004</v>
@@ -17876,13 +17954,13 @@
         <v>7</v>
       </c>
       <c r="F638" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G638">
         <v>6</v>
       </c>
       <c r="H638" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J638">
         <v>1004</v>
@@ -17908,13 +17986,13 @@
         <v>7</v>
       </c>
       <c r="F639" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G639">
         <v>6</v>
       </c>
       <c r="H639" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J639">
         <v>1004</v>
@@ -17940,13 +18018,13 @@
         <v>7</v>
       </c>
       <c r="F640" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G640">
         <v>6</v>
       </c>
       <c r="H640" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J640">
         <v>1004</v>
@@ -17972,13 +18050,13 @@
         <v>6</v>
       </c>
       <c r="F641" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G641">
         <v>6</v>
       </c>
       <c r="H641" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J641">
         <v>1004</v>
@@ -18004,7 +18082,7 @@
         <v>6</v>
       </c>
       <c r="F642" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G642">
         <v>6</v>
@@ -18036,7 +18114,7 @@
         <v>6</v>
       </c>
       <c r="F643" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G643">
         <v>6</v>
@@ -18068,7 +18146,7 @@
         <v>6</v>
       </c>
       <c r="F644" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G644">
         <v>6</v>
@@ -18100,7 +18178,7 @@
         <v>5</v>
       </c>
       <c r="F645" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G645">
         <v>6</v>
@@ -18132,13 +18210,13 @@
         <v>6</v>
       </c>
       <c r="F646" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G646">
         <v>6</v>
       </c>
       <c r="H646" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J646">
         <v>1006</v>
@@ -18164,13 +18242,13 @@
         <v>6</v>
       </c>
       <c r="F647" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G647">
         <v>6</v>
       </c>
       <c r="H647" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J647">
         <v>1006</v>
@@ -18196,7 +18274,7 @@
         <v>6</v>
       </c>
       <c r="F648" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G648">
         <v>6</v>
@@ -18228,13 +18306,13 @@
         <v>6</v>
       </c>
       <c r="F649" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G649">
         <v>6</v>
       </c>
       <c r="H649" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J649">
         <v>1007</v>
@@ -18260,13 +18338,13 @@
         <v>6</v>
       </c>
       <c r="F650" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G650">
         <v>6</v>
       </c>
       <c r="H650" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J650">
         <v>1007</v>
@@ -18292,7 +18370,7 @@
         <v>6</v>
       </c>
       <c r="F651" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G651">
         <v>6</v>
@@ -18324,7 +18402,7 @@
         <v>6</v>
       </c>
       <c r="F652" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G652">
         <v>6</v>
@@ -18356,7 +18434,7 @@
         <v>5</v>
       </c>
       <c r="F653" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G653">
         <v>6</v>
@@ -18388,7 +18466,7 @@
         <v>4</v>
       </c>
       <c r="F654" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G654">
         <v>6</v>
@@ -18420,7 +18498,7 @@
         <v>6</v>
       </c>
       <c r="F655" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G655">
         <v>6</v>
@@ -18452,7 +18530,7 @@
         <v>6</v>
       </c>
       <c r="F656" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G656">
         <v>6</v>
@@ -18571,7 +18649,7 @@
         <v>6</v>
       </c>
       <c r="F660" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G660">
         <v>6</v>
@@ -18603,7 +18681,7 @@
         <v>5</v>
       </c>
       <c r="F661" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G661">
         <v>6</v>
@@ -18635,7 +18713,7 @@
         <v>4</v>
       </c>
       <c r="F662" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G662">
         <v>6</v>
@@ -18667,7 +18745,7 @@
         <v>4</v>
       </c>
       <c r="F663" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G663">
         <v>6</v>
@@ -18699,13 +18777,13 @@
         <v>4</v>
       </c>
       <c r="F664" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G664">
         <v>6</v>
       </c>
       <c r="H664" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J664">
         <v>1009</v>
@@ -18731,7 +18809,7 @@
         <v>5</v>
       </c>
       <c r="F665" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G665">
         <v>6</v>
@@ -18792,13 +18870,13 @@
         <v>5</v>
       </c>
       <c r="F667" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G667">
         <v>6</v>
       </c>
       <c r="H667" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J667">
         <v>1009</v>
@@ -18824,7 +18902,7 @@
         <v>5</v>
       </c>
       <c r="F668" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G668">
         <v>8</v>
@@ -18856,13 +18934,13 @@
         <v>4</v>
       </c>
       <c r="F669" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G669">
         <v>8</v>
       </c>
       <c r="H669" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J669">
         <v>1009</v>
@@ -18888,13 +18966,13 @@
         <v>5</v>
       </c>
       <c r="F670" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G670">
         <v>8</v>
       </c>
       <c r="H670" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J670">
         <v>1010</v>
@@ -18920,13 +18998,13 @@
         <v>5</v>
       </c>
       <c r="F671" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G671">
         <v>8</v>
       </c>
       <c r="H671" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J671">
         <v>1009</v>
@@ -18952,13 +19030,13 @@
         <v>5</v>
       </c>
       <c r="F672" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G672">
         <v>8</v>
       </c>
-      <c r="H672" s="2">
-        <v>41398</v>
+      <c r="H672" t="s">
+        <v>26</v>
       </c>
       <c r="J672">
         <v>1010</v>
@@ -18984,13 +19062,13 @@
         <v>4</v>
       </c>
       <c r="F673" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G673">
         <v>8</v>
       </c>
-      <c r="H673" s="2">
-        <v>41277</v>
+      <c r="H673" t="s">
+        <v>27</v>
       </c>
       <c r="J673">
         <v>1010</v>
@@ -19016,13 +19094,13 @@
         <v>4</v>
       </c>
       <c r="F674" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G674">
         <v>8</v>
       </c>
-      <c r="H674" s="2">
-        <v>41309</v>
+      <c r="H674" t="s">
+        <v>28</v>
       </c>
       <c r="J674">
         <v>1010</v>
@@ -19048,7 +19126,7 @@
         <v>4</v>
       </c>
       <c r="F675" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G675">
         <v>8</v>
@@ -19080,7 +19158,7 @@
         <v>5</v>
       </c>
       <c r="F676" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G676">
         <v>8</v>
@@ -19112,7 +19190,7 @@
         <v>5</v>
       </c>
       <c r="F677" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G677">
         <v>8</v>
@@ -19144,7 +19222,7 @@
         <v>5</v>
       </c>
       <c r="F678" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G678">
         <v>8</v>
@@ -19176,7 +19254,7 @@
         <v>5</v>
       </c>
       <c r="F679" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G679">
         <v>8</v>
@@ -19208,7 +19286,7 @@
         <v>6</v>
       </c>
       <c r="F680" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G680">
         <v>8</v>
@@ -19240,7 +19318,7 @@
         <v>6</v>
       </c>
       <c r="F681" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G681">
         <v>8</v>
@@ -19301,7 +19379,7 @@
         <v>6</v>
       </c>
       <c r="F683" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G683">
         <v>8</v>
@@ -19333,7 +19411,7 @@
         <v>6</v>
       </c>
       <c r="F684" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G684">
         <v>8</v>
@@ -19365,7 +19443,7 @@
         <v>6</v>
       </c>
       <c r="F685" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G685">
         <v>8</v>
@@ -19397,13 +19475,13 @@
         <v>5</v>
       </c>
       <c r="F686" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G686">
         <v>8</v>
       </c>
       <c r="H686" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J686">
         <v>1010</v>
@@ -19429,13 +19507,13 @@
         <v>5</v>
       </c>
       <c r="F687" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G687">
         <v>8</v>
       </c>
       <c r="H687" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J687">
         <v>1010</v>
@@ -19461,13 +19539,13 @@
         <v>5</v>
       </c>
       <c r="F688" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G688">
         <v>8</v>
       </c>
       <c r="H688" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J688">
         <v>1011</v>
@@ -19493,13 +19571,13 @@
         <v>5</v>
       </c>
       <c r="F689" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G689">
         <v>8</v>
       </c>
       <c r="H689" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J689">
         <v>1011</v>
@@ -19525,13 +19603,13 @@
         <v>6</v>
       </c>
       <c r="F690" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G690">
         <v>8</v>
       </c>
       <c r="H690" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J690">
         <v>1011</v>
@@ -19557,13 +19635,13 @@
         <v>6</v>
       </c>
       <c r="F691" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G691">
         <v>8</v>
       </c>
       <c r="H691" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J691">
         <v>1011</v>
@@ -19589,7 +19667,7 @@
         <v>6</v>
       </c>
       <c r="F692" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G692">
         <v>8</v>
@@ -19621,13 +19699,13 @@
         <v>6</v>
       </c>
       <c r="F693" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G693">
         <v>8</v>
       </c>
-      <c r="H693" s="2">
-        <v>41521</v>
+      <c r="H693" t="s">
+        <v>29</v>
       </c>
       <c r="J693">
         <v>1011</v>
@@ -19653,7 +19731,7 @@
         <v>6</v>
       </c>
       <c r="F694" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G694">
         <v>8</v>
@@ -19714,7 +19792,7 @@
         <v>6</v>
       </c>
       <c r="F696" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G696">
         <v>6</v>
@@ -19775,13 +19853,13 @@
         <v>6</v>
       </c>
       <c r="F698" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G698">
         <v>6</v>
       </c>
       <c r="H698" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J698">
         <v>1012</v>
@@ -19807,13 +19885,13 @@
         <v>5</v>
       </c>
       <c r="F699" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G699">
         <v>6</v>
       </c>
       <c r="H699" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J699">
         <v>1012</v>
@@ -19839,7 +19917,7 @@
         <v>5</v>
       </c>
       <c r="F700" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G700">
         <v>6</v>
@@ -19900,7 +19978,7 @@
         <v>4</v>
       </c>
       <c r="F702" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G702">
         <v>6</v>
@@ -19932,7 +20010,7 @@
         <v>5</v>
       </c>
       <c r="F703" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G703">
         <v>6</v>
@@ -19964,7 +20042,7 @@
         <v>5</v>
       </c>
       <c r="F704" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G704">
         <v>6</v>
@@ -20083,7 +20161,7 @@
         <v>6</v>
       </c>
       <c r="F708" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G708">
         <v>6</v>
@@ -20347,7 +20425,7 @@
         <v>5</v>
       </c>
       <c r="F717" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G717">
         <v>8</v>
@@ -20411,7 +20489,7 @@
         <v>8</v>
       </c>
       <c r="H719" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J719">
         <v>1013</v>
@@ -20556,7 +20634,7 @@
         <v>8</v>
       </c>
       <c r="H724" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J724">
         <v>1013</v>
@@ -20614,7 +20692,7 @@
         <v>8</v>
       </c>
       <c r="H726" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J726">
         <v>1013</v>
@@ -20750,7 +20828,7 @@
         <v>14</v>
       </c>
       <c r="D731" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E731">
         <v>4</v>
@@ -21098,7 +21176,7 @@
         <v>17</v>
       </c>
       <c r="D743" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E743">
         <v>5</v>
@@ -21185,7 +21263,7 @@
         <v>17</v>
       </c>
       <c r="D746" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E746">
         <v>4</v>
@@ -21631,7 +21709,7 @@
         <v>6</v>
       </c>
       <c r="H762" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J762">
         <v>1018</v>
@@ -21657,7 +21735,7 @@
         <v>6</v>
       </c>
       <c r="H763" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J763">
         <v>1018</v>
@@ -21680,7 +21758,7 @@
         <v>6</v>
       </c>
       <c r="H764" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J764">
         <v>1018</v>
@@ -21705,8 +21783,8 @@
       <c r="G765">
         <v>6</v>
       </c>
-      <c r="H765" s="2">
-        <v>41398</v>
+      <c r="H765" t="s">
+        <v>26</v>
       </c>
       <c r="J765">
         <v>1018</v>
@@ -21731,8 +21809,8 @@
       <c r="G766">
         <v>6</v>
       </c>
-      <c r="H766" s="2">
-        <v>41459</v>
+      <c r="H766" t="s">
+        <v>25</v>
       </c>
       <c r="J766">
         <v>1018</v>
@@ -21757,8 +21835,8 @@
       <c r="G767">
         <v>6</v>
       </c>
-      <c r="H767" s="2">
-        <v>41426</v>
+      <c r="H767" t="s">
+        <v>30</v>
       </c>
       <c r="J767">
         <v>1018</v>
@@ -21783,8 +21861,8 @@
       <c r="G768">
         <v>6</v>
       </c>
-      <c r="H768" s="2">
-        <v>41518</v>
+      <c r="H768" t="s">
+        <v>31</v>
       </c>
       <c r="J768">
         <v>1018</v>
@@ -21809,8 +21887,8 @@
       <c r="G769">
         <v>6</v>
       </c>
-      <c r="H769" s="2">
-        <v>41426</v>
+      <c r="H769" t="s">
+        <v>30</v>
       </c>
       <c r="J769">
         <v>1018</v>
@@ -21836,7 +21914,7 @@
         <v>6</v>
       </c>
       <c r="H770" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J770">
         <v>1018</v>
@@ -21862,7 +21940,7 @@
         <v>6</v>
       </c>
       <c r="H771" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J771">
         <v>1018</v>
@@ -21882,10 +21960,10 @@
         <v>0</v>
       </c>
       <c r="F772" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H772" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J772">
         <v>1018</v>
@@ -21905,10 +21983,10 @@
         <v>0</v>
       </c>
       <c r="F773" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H773" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J773">
         <v>1018</v>
@@ -21928,10 +22006,10 @@
         <v>0</v>
       </c>
       <c r="F774" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H774" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J774">
         <v>1018</v>
@@ -21951,10 +22029,10 @@
         <v>0</v>
       </c>
       <c r="F775" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H775" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J775">
         <v>1019</v>
@@ -21974,10 +22052,10 @@
         <v>0</v>
       </c>
       <c r="F776" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H776" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J776">
         <v>1019</v>
@@ -21997,10 +22075,10 @@
         <v>0</v>
       </c>
       <c r="F777" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H777" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J777">
         <v>1019</v>
@@ -22020,10 +22098,10 @@
         <v>0</v>
       </c>
       <c r="F778" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H778" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J778">
         <v>1019</v>
@@ -22043,10 +22121,10 @@
         <v>0</v>
       </c>
       <c r="F779" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H779" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J779">
         <v>1019</v>
@@ -22074,8 +22152,8 @@
       <c r="G780">
         <v>6</v>
       </c>
-      <c r="H780" s="2">
-        <v>41426</v>
+      <c r="H780" t="s">
+        <v>30</v>
       </c>
       <c r="J780">
         <v>1019</v>
@@ -22104,7 +22182,7 @@
         <v>2</v>
       </c>
       <c r="H781" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J781">
         <v>1019</v>
@@ -22133,7 +22211,7 @@
         <v>6</v>
       </c>
       <c r="H782" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J782">
         <v>1019</v>
@@ -22373,7 +22451,7 @@
         <v>19</v>
       </c>
       <c r="D791" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E791">
         <v>3</v>
@@ -22431,7 +22509,7 @@
         <v>21</v>
       </c>
       <c r="D793" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E793">
         <v>4</v>
@@ -22460,7 +22538,7 @@
         <v>21</v>
       </c>
       <c r="D794" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E794">
         <v>3</v>
@@ -22489,7 +22567,7 @@
         <v>22</v>
       </c>
       <c r="D795" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E795">
         <v>4</v>
@@ -22576,7 +22654,7 @@
         <v>20</v>
       </c>
       <c r="D798" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E798">
         <v>5</v>
@@ -22605,7 +22683,7 @@
         <v>20</v>
       </c>
       <c r="D799" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E799">
         <v>4</v>
@@ -22692,7 +22770,7 @@
         <v>20</v>
       </c>
       <c r="D802" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E802">
         <v>4</v>
@@ -22896,7 +22974,7 @@
         <v>6</v>
       </c>
       <c r="H811" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J811">
         <v>1021</v>
@@ -22922,7 +23000,7 @@
         <v>6</v>
       </c>
       <c r="H812" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J812">
         <v>1021</v>
@@ -22945,7 +23023,7 @@
         <v>6</v>
       </c>
       <c r="H813" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J813">
         <v>1021</v>
@@ -22968,7 +23046,7 @@
         <v>6</v>
       </c>
       <c r="H814" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J814">
         <v>1021</v>
@@ -22991,7 +23069,7 @@
         <v>6</v>
       </c>
       <c r="H815" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J815">
         <v>1021</v>
@@ -23063,7 +23141,7 @@
         <v>6</v>
       </c>
       <c r="H818" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J818">
         <v>1021</v>
@@ -23086,7 +23164,7 @@
         <v>6</v>
       </c>
       <c r="H819" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J819">
         <v>1021</v>
@@ -23109,7 +23187,7 @@
         <v>6</v>
       </c>
       <c r="H820" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J820">
         <v>1021</v>
@@ -23135,7 +23213,7 @@
         <v>6</v>
       </c>
       <c r="H821" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J821">
         <v>1021</v>
@@ -23160,8 +23238,8 @@
       <c r="G822">
         <v>6</v>
       </c>
-      <c r="H822" s="2">
-        <v>41368</v>
+      <c r="H822" t="s">
+        <v>24</v>
       </c>
       <c r="J822">
         <v>1021</v>
@@ -23186,8 +23264,8 @@
       <c r="G823">
         <v>6</v>
       </c>
-      <c r="H823" s="2">
-        <v>41335</v>
+      <c r="H823" t="s">
+        <v>36</v>
       </c>
       <c r="J823">
         <v>1021</v>
@@ -23215,8 +23293,8 @@
       <c r="G824">
         <v>6</v>
       </c>
-      <c r="H824" s="2">
-        <v>41307</v>
+      <c r="H824" t="s">
+        <v>37</v>
       </c>
       <c r="J824">
         <v>1021</v>
@@ -23244,8 +23322,8 @@
       <c r="G825">
         <v>6</v>
       </c>
-      <c r="H825" s="2">
-        <v>41488</v>
+      <c r="H825" t="s">
+        <v>38</v>
       </c>
       <c r="J825">
         <v>1021</v>
@@ -23273,8 +23351,8 @@
       <c r="G826">
         <v>6</v>
       </c>
-      <c r="H826" s="2">
-        <v>41518</v>
+      <c r="H826" t="s">
+        <v>31</v>
       </c>
       <c r="J826">
         <v>1021</v>
@@ -23297,7 +23375,7 @@
         <v>6</v>
       </c>
       <c r="H827" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="J827">
         <v>1021</v>
@@ -23317,7 +23395,7 @@
         <v>14</v>
       </c>
       <c r="D828" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E828">
         <v>2</v>
@@ -23328,8 +23406,8 @@
       <c r="G828">
         <v>4</v>
       </c>
-      <c r="H828" s="2">
-        <v>41278</v>
+      <c r="H828" t="s">
+        <v>40</v>
       </c>
       <c r="J828">
         <v>1022</v>
@@ -23358,7 +23436,7 @@
         <v>6</v>
       </c>
       <c r="H829" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J829">
         <v>1022</v>
@@ -23375,7 +23453,7 @@
         <v>17</v>
       </c>
       <c r="D830" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E830">
         <v>2</v>
@@ -23398,7 +23476,7 @@
         <v>18</v>
       </c>
       <c r="D831" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E831">
         <v>3</v>
@@ -23424,7 +23502,7 @@
         <v>19</v>
       </c>
       <c r="D832" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E832">
         <v>4</v>
@@ -23482,7 +23560,7 @@
         <v>19</v>
       </c>
       <c r="D834" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E834">
         <v>5</v>
@@ -23511,7 +23589,7 @@
         <v>19</v>
       </c>
       <c r="D835" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E835">
         <v>5</v>
@@ -23569,7 +23647,7 @@
         <v>21</v>
       </c>
       <c r="D837" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E837">
         <v>4</v>
@@ -23598,7 +23676,7 @@
         <v>20</v>
       </c>
       <c r="D838" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E838">
         <v>6</v>
@@ -23685,7 +23763,7 @@
         <v>21</v>
       </c>
       <c r="D841" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E841">
         <v>6</v>
@@ -23714,7 +23792,7 @@
         <v>22</v>
       </c>
       <c r="D842" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E842">
         <v>5</v>
@@ -23743,7 +23821,7 @@
         <v>23</v>
       </c>
       <c r="D843" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E843">
         <v>6</v>
@@ -23801,7 +23879,7 @@
         <v>23</v>
       </c>
       <c r="D845" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E845">
         <v>5</v>
@@ -23830,7 +23908,7 @@
         <v>23</v>
       </c>
       <c r="D846" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E846">
         <v>4</v>
@@ -23859,7 +23937,7 @@
         <v>23</v>
       </c>
       <c r="D847" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E847">
         <v>5</v>
@@ -23917,7 +23995,7 @@
         <v>22</v>
       </c>
       <c r="D849" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E849">
         <v>5</v>
@@ -23969,7 +24047,7 @@
         <v>20</v>
       </c>
       <c r="D851" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E851">
         <v>3</v>
@@ -23992,7 +24070,7 @@
         <v>20</v>
       </c>
       <c r="D852" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E852">
         <v>2</v>
@@ -24015,7 +24093,7 @@
         <v>17</v>
       </c>
       <c r="D853" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E853">
         <v>1</v>
@@ -24307,7 +24385,7 @@
         <v>6</v>
       </c>
       <c r="H867" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J867">
         <v>1024</v>
@@ -24332,8 +24410,8 @@
       <c r="G868">
         <v>6</v>
       </c>
-      <c r="H868" s="2">
-        <v>41459</v>
+      <c r="H868" t="s">
+        <v>25</v>
       </c>
       <c r="J868">
         <v>1024</v>
@@ -24358,8 +24436,8 @@
       <c r="G869">
         <v>6</v>
       </c>
-      <c r="H869" s="2">
-        <v>41427</v>
+      <c r="H869" t="s">
+        <v>41</v>
       </c>
       <c r="J869">
         <v>1024</v>
@@ -24382,7 +24460,7 @@
         <v>6</v>
       </c>
       <c r="H870" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J870">
         <v>1024</v>
@@ -24405,7 +24483,7 @@
         <v>6</v>
       </c>
       <c r="H871" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J871">
         <v>1024</v>
@@ -24430,8 +24508,8 @@
       <c r="G872">
         <v>6</v>
       </c>
-      <c r="H872" s="2">
-        <v>41428</v>
+      <c r="H872" t="s">
+        <v>42</v>
       </c>
       <c r="J872">
         <v>1024</v>
@@ -24456,8 +24534,8 @@
       <c r="G873">
         <v>6</v>
       </c>
-      <c r="H873" s="2">
-        <v>41520</v>
+      <c r="H873" t="s">
+        <v>43</v>
       </c>
       <c r="J873">
         <v>1024</v>
@@ -24482,8 +24560,8 @@
       <c r="G874">
         <v>6</v>
       </c>
-      <c r="H874" s="2">
-        <v>41521</v>
+      <c r="H874" t="s">
+        <v>29</v>
       </c>
       <c r="J874">
         <v>1024</v>
@@ -24509,7 +24587,7 @@
         <v>6</v>
       </c>
       <c r="H875" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J875">
         <v>1025</v>
@@ -24684,7 +24762,7 @@
         <v>22</v>
       </c>
       <c r="D883" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E883">
         <v>3</v>
@@ -24707,7 +24785,7 @@
         <v>22</v>
       </c>
       <c r="D884" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E884">
         <v>3</v>
@@ -24753,7 +24831,7 @@
         <v>23</v>
       </c>
       <c r="D886" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E886">
         <v>4</v>
@@ -26550,13 +26628,13 @@
         <v>22</v>
       </c>
       <c r="D964" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E964">
         <v>5</v>
       </c>
       <c r="F964" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G964">
         <v>4</v>
@@ -26588,7 +26666,7 @@
         <v>2</v>
       </c>
       <c r="F965" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G965">
         <v>4</v>
@@ -26614,13 +26692,13 @@
         <v>19</v>
       </c>
       <c r="D966" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E966">
         <v>2</v>
       </c>
       <c r="F966" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G966">
         <v>4</v>
@@ -26652,7 +26730,7 @@
         <v>2</v>
       </c>
       <c r="F967" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G967">
         <v>4</v>
@@ -26684,7 +26762,7 @@
         <v>2</v>
       </c>
       <c r="F968" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G968">
         <v>6</v>
@@ -26716,7 +26794,7 @@
         <v>1</v>
       </c>
       <c r="F969" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G969">
         <v>6</v>
@@ -26774,7 +26852,7 @@
         <v>0</v>
       </c>
       <c r="F971" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G971">
         <v>4</v>
@@ -27037,7 +27115,7 @@
         <v>26</v>
       </c>
       <c r="D981" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E981">
         <v>3</v>
@@ -27083,7 +27161,7 @@
         <v>26</v>
       </c>
       <c r="D983" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E983">
         <v>4</v>
@@ -27106,7 +27184,7 @@
         <v>26</v>
       </c>
       <c r="D984" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E984">
         <v>2</v>
@@ -27129,7 +27207,7 @@
         <v>26</v>
       </c>
       <c r="D985" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E985">
         <v>3</v>
@@ -27164,7 +27242,7 @@
         <v>4</v>
       </c>
       <c r="F986" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G986">
         <v>4</v>
@@ -27509,7 +27587,7 @@
         <v>6</v>
       </c>
       <c r="H1001" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1001">
         <v>1019</v>
@@ -27534,8 +27612,8 @@
       <c r="G1002">
         <v>6</v>
       </c>
-      <c r="H1002" s="2">
-        <v>41521</v>
+      <c r="H1002" t="s">
+        <v>29</v>
       </c>
       <c r="J1002">
         <v>1018</v>
@@ -27560,8 +27638,8 @@
       <c r="G1003">
         <v>6</v>
       </c>
-      <c r="H1003" s="2">
-        <v>41308</v>
+      <c r="H1003" t="s">
+        <v>44</v>
       </c>
       <c r="J1003">
         <v>1018</v>
@@ -27586,8 +27664,8 @@
       <c r="G1004">
         <v>6</v>
       </c>
-      <c r="H1004" s="2">
-        <v>41367</v>
+      <c r="H1004" t="s">
+        <v>12</v>
       </c>
       <c r="J1004">
         <v>1018</v>
@@ -27612,8 +27690,8 @@
       <c r="G1005">
         <v>6</v>
       </c>
-      <c r="H1005" s="2">
-        <v>41429</v>
+      <c r="H1005" t="s">
+        <v>45</v>
       </c>
       <c r="J1005">
         <v>1018</v>
@@ -27638,8 +27716,8 @@
       <c r="G1006">
         <v>6</v>
       </c>
-      <c r="H1006" s="2">
-        <v>41398</v>
+      <c r="H1006" t="s">
+        <v>26</v>
       </c>
       <c r="J1006">
         <v>1018</v>
@@ -27664,8 +27742,8 @@
       <c r="G1007">
         <v>6</v>
       </c>
-      <c r="H1007" s="2">
-        <v>41309</v>
+      <c r="H1007" t="s">
+        <v>28</v>
       </c>
       <c r="J1007">
         <v>1018</v>
@@ -27690,8 +27768,8 @@
       <c r="G1008">
         <v>6</v>
       </c>
-      <c r="H1008" s="2">
-        <v>41307</v>
+      <c r="H1008" t="s">
+        <v>37</v>
       </c>
       <c r="J1008">
         <v>1018</v>
@@ -27716,8 +27794,8 @@
       <c r="G1009">
         <v>6</v>
       </c>
-      <c r="H1009" s="2">
-        <v>41519</v>
+      <c r="H1009" t="s">
+        <v>46</v>
       </c>
       <c r="J1009">
         <v>1018</v>
@@ -27742,8 +27820,8 @@
       <c r="G1010">
         <v>6</v>
       </c>
-      <c r="H1010" s="2">
-        <v>41519</v>
+      <c r="H1010" t="s">
+        <v>46</v>
       </c>
       <c r="J1010">
         <v>1017</v>
@@ -27766,7 +27844,7 @@
         <v>6</v>
       </c>
       <c r="H1011" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="J1011">
         <v>1017</v>
@@ -27791,8 +27869,8 @@
       <c r="G1012">
         <v>6</v>
       </c>
-      <c r="H1012" s="2">
-        <v>41429</v>
+      <c r="H1012" t="s">
+        <v>45</v>
       </c>
       <c r="J1012">
         <v>1017</v>
@@ -27814,8 +27892,8 @@
       <c r="G1013">
         <v>6</v>
       </c>
-      <c r="H1013" s="2">
-        <v>41430</v>
+      <c r="H1013" t="s">
+        <v>48</v>
       </c>
       <c r="J1013">
         <v>1017</v>
@@ -27910,7 +27988,7 @@
         <v>6</v>
       </c>
       <c r="H1017" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1017">
         <v>1016</v>
@@ -27938,8 +28016,8 @@
       <c r="G1018">
         <v>6</v>
       </c>
-      <c r="H1018" s="2">
-        <v>41488</v>
+      <c r="H1018" t="s">
+        <v>38</v>
       </c>
       <c r="J1018">
         <v>1017</v>
@@ -27965,7 +28043,7 @@
         <v>6</v>
       </c>
       <c r="H1019" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1019">
         <v>1016</v>
@@ -28785,7 +28863,7 @@
         <v>6</v>
       </c>
       <c r="H1054" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1054">
         <v>1015</v>
@@ -28808,7 +28886,7 @@
         <v>6</v>
       </c>
       <c r="H1055" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1055">
         <v>1015</v>
@@ -28877,7 +28955,7 @@
         <v>6</v>
       </c>
       <c r="H1058" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1058">
         <v>1015</v>
@@ -28900,7 +28978,7 @@
         <v>6</v>
       </c>
       <c r="H1059" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1059">
         <v>1015</v>
@@ -28923,7 +29001,7 @@
         <v>6</v>
       </c>
       <c r="H1060" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1060">
         <v>1015</v>
@@ -28948,8 +29026,8 @@
       <c r="G1061">
         <v>6</v>
       </c>
-      <c r="H1061" s="2">
-        <v>41278</v>
+      <c r="H1061" t="s">
+        <v>40</v>
       </c>
       <c r="J1061">
         <v>1015</v>
@@ -28975,7 +29053,7 @@
         <v>6</v>
       </c>
       <c r="H1062" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1062">
         <v>1015</v>
@@ -29000,8 +29078,8 @@
       <c r="G1063">
         <v>6</v>
       </c>
-      <c r="H1063" s="2">
-        <v>41366</v>
+      <c r="H1063" t="s">
+        <v>49</v>
       </c>
       <c r="J1063">
         <v>1015</v>
@@ -29024,7 +29102,7 @@
         <v>6</v>
       </c>
       <c r="H1064" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1064">
         <v>1015</v>
@@ -29049,8 +29127,8 @@
       <c r="G1065">
         <v>6</v>
       </c>
-      <c r="H1065" s="2">
-        <v>41366</v>
+      <c r="H1065" t="s">
+        <v>49</v>
       </c>
       <c r="J1065">
         <v>1015</v>
@@ -29075,8 +29153,8 @@
       <c r="G1066">
         <v>6</v>
       </c>
-      <c r="H1066" s="2">
-        <v>41490</v>
+      <c r="H1066" t="s">
+        <v>50</v>
       </c>
       <c r="J1066">
         <v>1015</v>
@@ -29093,7 +29171,7 @@
         <v>18</v>
       </c>
       <c r="D1067" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1067">
         <v>2</v>
@@ -29102,7 +29180,7 @@
         <v>6</v>
       </c>
       <c r="H1067" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1067">
         <v>1016</v>
@@ -29119,7 +29197,7 @@
         <v>19</v>
       </c>
       <c r="D1068" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1068">
         <v>2</v>
@@ -29128,7 +29206,7 @@
         <v>6</v>
       </c>
       <c r="H1068" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1068">
         <v>1016</v>
@@ -29145,7 +29223,7 @@
         <v>20</v>
       </c>
       <c r="D1069" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1069">
         <v>2</v>
@@ -29168,7 +29246,7 @@
         <v>21</v>
       </c>
       <c r="D1070" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1070">
         <v>2</v>
@@ -29609,7 +29687,7 @@
         <v>0</v>
       </c>
       <c r="F1088" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1088">
         <v>4</v>
@@ -29641,7 +29719,7 @@
         <v>2</v>
       </c>
       <c r="F1089" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1089">
         <v>4</v>
@@ -29673,7 +29751,7 @@
         <v>3</v>
       </c>
       <c r="F1090" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1090">
         <v>4</v>
@@ -29705,7 +29783,7 @@
         <v>1</v>
       </c>
       <c r="F1091" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1091">
         <v>4</v>
@@ -29737,7 +29815,7 @@
         <v>2</v>
       </c>
       <c r="F1092" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1092">
         <v>4</v>
@@ -29766,7 +29844,7 @@
         <v>0</v>
       </c>
       <c r="F1093" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1093">
         <v>4</v>
@@ -29795,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="F1094" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1094">
         <v>4</v>
@@ -29879,7 +29957,7 @@
         <v>4</v>
       </c>
       <c r="H1097" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1097">
         <v>1015</v>
@@ -29951,7 +30029,7 @@
         <v>6</v>
       </c>
       <c r="H1100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1100">
         <v>1015</v>
@@ -29974,7 +30052,7 @@
         <v>6</v>
       </c>
       <c r="H1101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1101">
         <v>1015</v>
@@ -30000,7 +30078,7 @@
         <v>6</v>
       </c>
       <c r="H1102" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1102">
         <v>1015</v>
@@ -30025,8 +30103,8 @@
       <c r="G1103">
         <v>6</v>
       </c>
-      <c r="H1103" s="2">
-        <v>41367</v>
+      <c r="H1103" t="s">
+        <v>12</v>
       </c>
       <c r="J1103">
         <v>1014</v>
@@ -30052,7 +30130,7 @@
         <v>6</v>
       </c>
       <c r="H1104" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1104">
         <v>1014</v>
@@ -30075,7 +30153,7 @@
         <v>6</v>
       </c>
       <c r="H1105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1105">
         <v>1014</v>
@@ -30100,8 +30178,8 @@
       <c r="G1106">
         <v>6</v>
       </c>
-      <c r="H1106" s="2">
-        <v>41368</v>
+      <c r="H1106" t="s">
+        <v>24</v>
       </c>
       <c r="J1106">
         <v>1014</v>
@@ -30127,7 +30205,7 @@
         <v>6</v>
       </c>
       <c r="H1107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1107">
         <v>1014</v>
@@ -30153,7 +30231,7 @@
         <v>6</v>
       </c>
       <c r="H1108" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1108">
         <v>1014</v>
@@ -30182,7 +30260,7 @@
         <v>6</v>
       </c>
       <c r="H1109" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1109">
         <v>1014</v>
@@ -30207,8 +30285,8 @@
       <c r="G1110">
         <v>6</v>
       </c>
-      <c r="H1110" s="2">
-        <v>41278</v>
+      <c r="H1110" t="s">
+        <v>40</v>
       </c>
       <c r="J1110">
         <v>1014</v>
@@ -30234,7 +30312,7 @@
         <v>6</v>
       </c>
       <c r="H1111" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1111">
         <v>1014</v>
@@ -30259,8 +30337,8 @@
       <c r="G1112">
         <v>6</v>
       </c>
-      <c r="H1112" s="2">
-        <v>41367</v>
+      <c r="H1112" t="s">
+        <v>12</v>
       </c>
       <c r="J1112">
         <v>1013</v>
@@ -30286,7 +30364,7 @@
         <v>6</v>
       </c>
       <c r="H1113" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1113">
         <v>1013</v>
@@ -30314,8 +30392,8 @@
       <c r="G1114">
         <v>6</v>
       </c>
-      <c r="H1114" s="2">
-        <v>41309</v>
+      <c r="H1114" t="s">
+        <v>28</v>
       </c>
       <c r="J1114">
         <v>1014</v>
@@ -30343,8 +30421,8 @@
       <c r="G1115">
         <v>6</v>
       </c>
-      <c r="H1115" s="2">
-        <v>41398</v>
+      <c r="H1115" t="s">
+        <v>26</v>
       </c>
       <c r="J1115">
         <v>1014</v>
@@ -30369,8 +30447,8 @@
       <c r="G1116">
         <v>6</v>
       </c>
-      <c r="H1116" s="2">
-        <v>41521</v>
+      <c r="H1116" t="s">
+        <v>29</v>
       </c>
       <c r="J1116">
         <v>1014</v>
@@ -30396,7 +30474,7 @@
         <v>6</v>
       </c>
       <c r="H1117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1117">
         <v>1014</v>
@@ -31061,7 +31139,7 @@
         <v>0</v>
       </c>
       <c r="F1145" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1145">
         <v>4</v>
@@ -31087,13 +31165,13 @@
         <v>20</v>
       </c>
       <c r="D1146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1146">
         <v>7</v>
       </c>
       <c r="F1146" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1146">
         <v>4</v>
@@ -31125,7 +31203,7 @@
         <v>7</v>
       </c>
       <c r="F1147" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1147">
         <v>6</v>
@@ -31206,7 +31284,7 @@
         <v>6</v>
       </c>
       <c r="H1150" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1150">
         <v>1010</v>
@@ -31231,8 +31309,8 @@
       <c r="G1151">
         <v>6</v>
       </c>
-      <c r="H1151" s="2">
-        <v>41277</v>
+      <c r="H1151" t="s">
+        <v>27</v>
       </c>
       <c r="J1151">
         <v>1010</v>
@@ -31258,7 +31336,7 @@
         <v>6</v>
       </c>
       <c r="H1152" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1152">
         <v>1010</v>
@@ -31824,7 +31902,7 @@
         <v>28</v>
       </c>
       <c r="D1177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1177">
         <v>2</v>
@@ -32008,7 +32086,7 @@
         <v>28</v>
       </c>
       <c r="D1185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1185">
         <v>4</v>
@@ -32031,7 +32109,7 @@
         <v>28</v>
       </c>
       <c r="D1186" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1186">
         <v>3</v>
@@ -32077,7 +32155,7 @@
         <v>24</v>
       </c>
       <c r="D1188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1188">
         <v>3</v>
@@ -32143,7 +32221,7 @@
         <v>22</v>
       </c>
       <c r="D1191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1191">
         <v>2</v>
@@ -32166,7 +32244,7 @@
         <v>22</v>
       </c>
       <c r="D1192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1192">
         <v>2</v>
@@ -33064,7 +33142,7 @@
         <v>26</v>
       </c>
       <c r="D1233" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1233">
         <v>5</v>
@@ -33093,7 +33171,7 @@
         <v>5</v>
       </c>
       <c r="F1234" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1234">
         <v>4</v>
@@ -33119,13 +33197,13 @@
         <v>25</v>
       </c>
       <c r="D1235" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1235">
         <v>7</v>
       </c>
       <c r="F1235" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1235">
         <v>4</v>
@@ -33151,13 +33229,13 @@
         <v>23</v>
       </c>
       <c r="D1236" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1236">
         <v>5</v>
       </c>
       <c r="F1236" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1236">
         <v>4</v>
@@ -33183,13 +33261,13 @@
         <v>23</v>
       </c>
       <c r="D1237" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1237">
         <v>5</v>
       </c>
       <c r="F1237" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1237">
         <v>4</v>
@@ -33215,13 +33293,13 @@
         <v>20</v>
       </c>
       <c r="D1238" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1238">
         <v>5</v>
       </c>
       <c r="F1238" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="G1238">
         <v>4</v>
@@ -33247,13 +33325,13 @@
         <v>19</v>
       </c>
       <c r="D1239" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1239">
         <v>4</v>
       </c>
       <c r="F1239" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1239">
         <v>4</v>
@@ -33279,7 +33357,7 @@
         <v>19</v>
       </c>
       <c r="D1240" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1240">
         <v>2</v>
@@ -33308,7 +33386,7 @@
         <v>19</v>
       </c>
       <c r="D1241" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1241">
         <v>3</v>
@@ -33337,7 +33415,7 @@
         <v>18</v>
       </c>
       <c r="D1242" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1242">
         <v>2</v>
@@ -33366,7 +33444,7 @@
         <v>18</v>
       </c>
       <c r="D1243" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1243">
         <v>2</v>
@@ -33395,7 +33473,7 @@
         <v>18</v>
       </c>
       <c r="D1244" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1244">
         <v>4</v>
@@ -33424,7 +33502,7 @@
         <v>18</v>
       </c>
       <c r="D1245" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1245">
         <v>3</v>
@@ -33453,7 +33531,7 @@
         <v>18</v>
       </c>
       <c r="D1246" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1246">
         <v>3</v>
@@ -33482,19 +33560,19 @@
         <v>16</v>
       </c>
       <c r="D1247" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1247">
         <v>4</v>
       </c>
       <c r="F1247" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="G1247">
         <v>4</v>
       </c>
       <c r="H1247" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1247">
         <v>1011</v>
@@ -33514,7 +33592,7 @@
         <v>14</v>
       </c>
       <c r="D1248" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1248">
         <v>5</v>
@@ -33549,7 +33627,7 @@
         <v>2</v>
       </c>
       <c r="F1249" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1249">
         <v>4</v>
@@ -33575,7 +33653,7 @@
         <v>16</v>
       </c>
       <c r="D1250" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1250">
         <v>2</v>
@@ -33613,7 +33691,7 @@
         <v>6</v>
       </c>
       <c r="H1251" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1251">
         <v>1011</v>
@@ -33633,19 +33711,19 @@
         <v>16</v>
       </c>
       <c r="D1252" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1252">
         <v>3</v>
       </c>
       <c r="F1252" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1252">
         <v>6</v>
       </c>
       <c r="H1252" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1252">
         <v>1010</v>
@@ -33671,13 +33749,13 @@
         <v>2</v>
       </c>
       <c r="F1253" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1253">
         <v>6</v>
       </c>
       <c r="H1253" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1253">
         <v>1010</v>
@@ -33703,13 +33781,13 @@
         <v>2</v>
       </c>
       <c r="F1254" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1254">
         <v>6</v>
       </c>
       <c r="H1254" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1254">
         <v>1010</v>
@@ -33735,13 +33813,13 @@
         <v>3</v>
       </c>
       <c r="F1255" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1255">
         <v>6</v>
       </c>
       <c r="H1255" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1255">
         <v>1010</v>
@@ -33761,19 +33839,19 @@
         <v>17</v>
       </c>
       <c r="D1256" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1256">
         <v>5</v>
       </c>
       <c r="F1256" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1256">
         <v>6</v>
       </c>
       <c r="H1256" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1256">
         <v>1010</v>
@@ -33793,7 +33871,7 @@
         <v>17</v>
       </c>
       <c r="D1257" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1257">
         <v>3</v>
@@ -33822,13 +33900,13 @@
         <v>16</v>
       </c>
       <c r="D1258" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1258">
         <v>4</v>
       </c>
       <c r="F1258" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1258">
         <v>6</v>
@@ -33854,13 +33932,13 @@
         <v>16</v>
       </c>
       <c r="D1259" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1259">
         <v>4</v>
       </c>
       <c r="F1259" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1259">
         <v>4</v>
@@ -33892,7 +33970,7 @@
         <v>4</v>
       </c>
       <c r="F1260" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1260">
         <v>6</v>
@@ -33918,13 +33996,13 @@
         <v>15</v>
       </c>
       <c r="D1261" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1261">
         <v>5</v>
       </c>
       <c r="F1261" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1261">
         <v>6</v>
@@ -33950,13 +34028,13 @@
         <v>15</v>
       </c>
       <c r="D1262" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1262">
         <v>4</v>
       </c>
       <c r="F1262" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1262">
         <v>6</v>
@@ -33982,13 +34060,13 @@
         <v>16</v>
       </c>
       <c r="D1263" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1263">
         <v>2</v>
       </c>
       <c r="F1263" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1263">
         <v>4</v>
@@ -34020,7 +34098,7 @@
         <v>4</v>
       </c>
       <c r="F1264" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1264">
         <v>4</v>
@@ -34278,7 +34356,7 @@
         <v>19</v>
       </c>
       <c r="D1273" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1273">
         <v>6</v>
@@ -34394,7 +34472,7 @@
         <v>19</v>
       </c>
       <c r="D1277" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1277">
         <v>7</v>
@@ -34423,7 +34501,7 @@
         <v>19</v>
       </c>
       <c r="D1278" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1278">
         <v>7</v>
@@ -34452,7 +34530,7 @@
         <v>19</v>
       </c>
       <c r="D1279" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1279">
         <v>7</v>
@@ -34481,7 +34559,7 @@
         <v>19</v>
       </c>
       <c r="D1280" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1280">
         <v>6</v>
@@ -34510,13 +34588,13 @@
         <v>18</v>
       </c>
       <c r="D1281" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1281">
         <v>5</v>
       </c>
       <c r="F1281" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1281">
         <v>4</v>
@@ -34542,7 +34620,7 @@
         <v>17</v>
       </c>
       <c r="D1282" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1282">
         <v>3</v>
@@ -34577,7 +34655,7 @@
         <v>3</v>
       </c>
       <c r="F1283" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1283">
         <v>4</v>
@@ -34603,7 +34681,7 @@
         <v>16</v>
       </c>
       <c r="D1284" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1284">
         <v>5</v>
@@ -34719,7 +34797,7 @@
         <v>15</v>
       </c>
       <c r="D1288" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1288">
         <v>5</v>
@@ -34742,7 +34820,7 @@
         <v>14</v>
       </c>
       <c r="D1289" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1289">
         <v>5</v>
@@ -34765,7 +34843,7 @@
         <v>14</v>
       </c>
       <c r="D1290" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1290">
         <v>4</v>
@@ -34791,7 +34869,7 @@
         <v>14</v>
       </c>
       <c r="D1291" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1291">
         <v>5</v>
@@ -34820,7 +34898,7 @@
         <v>13</v>
       </c>
       <c r="D1292" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1292">
         <v>4</v>
@@ -34849,7 +34927,7 @@
         <v>13</v>
       </c>
       <c r="D1293" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1293">
         <v>3</v>
@@ -35023,7 +35101,7 @@
         <v>13</v>
       </c>
       <c r="D1299" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1299">
         <v>4</v>
@@ -35052,7 +35130,7 @@
         <v>12</v>
       </c>
       <c r="D1300" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1300">
         <v>4</v>
@@ -35283,7 +35361,7 @@
         <v>12</v>
       </c>
       <c r="D1309" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1309">
         <v>4</v>
@@ -35312,7 +35390,7 @@
         <v>12</v>
       </c>
       <c r="D1310" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1310">
         <v>4</v>
@@ -35341,7 +35419,7 @@
         <v>14</v>
       </c>
       <c r="D1311" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1311">
         <v>4</v>
@@ -35364,7 +35442,7 @@
         <v>14</v>
       </c>
       <c r="D1312" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1312">
         <v>5</v>
@@ -35387,7 +35465,7 @@
         <v>15</v>
       </c>
       <c r="D1313" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1313">
         <v>6</v>
@@ -35410,7 +35488,7 @@
         <v>16</v>
       </c>
       <c r="D1314" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1314">
         <v>6</v>
@@ -35439,7 +35517,7 @@
         <v>16</v>
       </c>
       <c r="D1315" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1315">
         <v>6</v>
@@ -35468,7 +35546,7 @@
         <v>16</v>
       </c>
       <c r="D1316" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1316">
         <v>6</v>
@@ -35497,7 +35575,7 @@
         <v>17</v>
       </c>
       <c r="D1317" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1317">
         <v>6</v>
@@ -35526,7 +35604,7 @@
         <v>18</v>
       </c>
       <c r="D1318" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1318">
         <v>5</v>
@@ -35613,7 +35691,7 @@
         <v>18</v>
       </c>
       <c r="D1321" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1321">
         <v>5</v>
@@ -35700,7 +35778,7 @@
         <v>19</v>
       </c>
       <c r="D1324" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1324">
         <v>5</v>
@@ -36103,7 +36181,7 @@
         <v>6</v>
       </c>
       <c r="H1341" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1341">
         <v>1020</v>
@@ -36249,7 +36327,7 @@
         <v>6</v>
       </c>
       <c r="H1348" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1348">
         <v>1020</v>
@@ -36275,7 +36353,7 @@
         <v>6</v>
       </c>
       <c r="H1349" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1349">
         <v>1020</v>
@@ -36297,8 +36375,8 @@
       <c r="F1350" t="s">
         <v>11</v>
       </c>
-      <c r="H1350" s="2">
-        <v>41309</v>
+      <c r="H1350" t="s">
+        <v>28</v>
       </c>
       <c r="J1350">
         <v>1020</v>
@@ -36323,8 +36401,8 @@
       <c r="G1351">
         <v>6</v>
       </c>
-      <c r="H1351" s="2">
-        <v>41275</v>
+      <c r="H1351" t="s">
+        <v>52</v>
       </c>
       <c r="J1351">
         <v>1020</v>
@@ -36344,7 +36422,7 @@
         <v>0</v>
       </c>
       <c r="H1352" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J1352">
         <v>1020</v>
@@ -36369,8 +36447,8 @@
       <c r="G1353">
         <v>6</v>
       </c>
-      <c r="H1353" s="2">
-        <v>41395</v>
+      <c r="H1353" t="s">
+        <v>54</v>
       </c>
       <c r="J1353">
         <v>1021</v>
@@ -36395,8 +36473,8 @@
       <c r="G1354">
         <v>6</v>
       </c>
-      <c r="H1354" s="2">
-        <v>41277</v>
+      <c r="H1354" t="s">
+        <v>27</v>
       </c>
       <c r="J1354">
         <v>1021</v>
@@ -36419,7 +36497,7 @@
         <v>6</v>
       </c>
       <c r="H1355" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1355">
         <v>1021</v>
@@ -36605,7 +36683,7 @@
         <v>19</v>
       </c>
       <c r="D1364" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1364">
         <v>2</v>
@@ -36651,7 +36729,7 @@
         <v>19</v>
       </c>
       <c r="D1366" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1366">
         <v>3</v>
@@ -36697,7 +36775,7 @@
         <v>20</v>
       </c>
       <c r="D1368" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1368">
         <v>2</v>
@@ -36766,7 +36844,7 @@
         <v>21</v>
       </c>
       <c r="D1371" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1371">
         <v>2</v>
@@ -36812,7 +36890,7 @@
         <v>21</v>
       </c>
       <c r="D1373" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1373">
         <v>3</v>
@@ -36835,7 +36913,7 @@
         <v>22</v>
       </c>
       <c r="D1374" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1374">
         <v>2</v>
@@ -36858,7 +36936,7 @@
         <v>22</v>
       </c>
       <c r="D1375" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1375">
         <v>2</v>
@@ -37127,8 +37205,8 @@
       <c r="G1387">
         <v>6</v>
       </c>
-      <c r="H1387" s="2">
-        <v>41490</v>
+      <c r="H1387" t="s">
+        <v>50</v>
       </c>
       <c r="J1387">
         <v>1021</v>
@@ -37706,7 +37784,7 @@
         <v>21</v>
       </c>
       <c r="D1415" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1415">
         <v>2</v>
